--- a/results/gurobi_cplex_comparison/seed_10_k_50.xlsx
+++ b/results/gurobi_cplex_comparison/seed_10_k_50.xlsx
@@ -429,10 +429,10 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.014</v>
+        <v>1.352</v>
       </c>
       <c r="F2">
-        <v>0.038</v>
+        <v>0.366</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -449,10 +449,10 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.015</v>
+        <v>1.94</v>
       </c>
       <c r="F3">
-        <v>0.04</v>
+        <v>0.477</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -469,10 +469,10 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.042</v>
+        <v>2.676</v>
       </c>
       <c r="F4">
-        <v>0.06</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -489,10 +489,10 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.041</v>
+        <v>3.477</v>
       </c>
       <c r="F5">
-        <v>0.067</v>
+        <v>0.791</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -509,10 +509,10 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.055</v>
+        <v>4.425</v>
       </c>
       <c r="F6">
-        <v>0.095</v>
+        <v>1.055</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -529,10 +529,10 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.05</v>
+        <v>5.443</v>
       </c>
       <c r="F7">
-        <v>0.08500000000000001</v>
+        <v>1.17</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -549,10 +549,10 @@
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.119</v>
+        <v>6.64</v>
       </c>
       <c r="F8">
-        <v>101.901</v>
+        <v>84.17700000000001</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -569,10 +569,10 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.035</v>
+        <v>7.889</v>
       </c>
       <c r="F9">
-        <v>0.098</v>
+        <v>1.681</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -589,10 +589,10 @@
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.247</v>
+        <v>9.367000000000001</v>
       </c>
       <c r="F10">
-        <v>62.973</v>
+        <v>46.993</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -609,10 +609,10 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.062</v>
+        <v>10.786</v>
       </c>
       <c r="F11">
-        <v>108.881</v>
+        <v>99.73099999999999</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -629,10 +629,10 @@
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.106</v>
+        <v>12.328</v>
       </c>
       <c r="F12">
-        <v>92.944</v>
+        <v>60.401</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -649,10 +649,10 @@
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.11</v>
+        <v>14.094</v>
       </c>
       <c r="F13">
-        <v>41.052</v>
+        <v>58.308</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -669,10 +669,10 @@
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.279</v>
+        <v>16.079</v>
       </c>
       <c r="F14">
-        <v>115.585</v>
+        <v>128.515</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -689,10 +689,10 @@
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.128</v>
+        <v>17.803</v>
       </c>
       <c r="F15">
-        <v>103.392</v>
+        <v>60.668</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -709,10 +709,10 @@
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.224</v>
+        <v>19.854</v>
       </c>
       <c r="F16">
-        <v>82.785</v>
+        <v>68.202</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -729,10 +729,10 @@
         <v>0</v>
       </c>
       <c r="E17">
-        <v>1.012</v>
+        <v>23.009</v>
       </c>
       <c r="F17">
-        <v>119.526</v>
+        <v>142.576</v>
       </c>
     </row>
   </sheetData>

--- a/results/gurobi_cplex_comparison/seed_10_k_50.xlsx
+++ b/results/gurobi_cplex_comparison/seed_10_k_50.xlsx
@@ -389,7 +389,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -417,10 +417,10 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="B2">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -429,18 +429,18 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>1.352</v>
+        <v>22.646</v>
       </c>
       <c r="F2">
-        <v>0.366</v>
+        <v>50.02</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3">
-        <v>30</v>
+        <v>150</v>
       </c>
       <c r="B3">
-        <v>60</v>
+        <v>300</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -449,18 +449,18 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>1.94</v>
+        <v>48.809</v>
       </c>
       <c r="F3">
-        <v>0.477</v>
+        <v>148.246</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4">
-        <v>35</v>
+        <v>250</v>
       </c>
       <c r="B4">
-        <v>70</v>
+        <v>500</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -469,270 +469,10 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>2.676</v>
+        <v>139.182</v>
       </c>
       <c r="F4">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5">
-        <v>40</v>
-      </c>
-      <c r="B5">
-        <v>80</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>3.477</v>
-      </c>
-      <c r="F5">
-        <v>0.791</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6">
-        <v>45</v>
-      </c>
-      <c r="B6">
-        <v>90</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>4.425</v>
-      </c>
-      <c r="F6">
-        <v>1.055</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7">
-        <v>50</v>
-      </c>
-      <c r="B7">
-        <v>100</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7">
-        <v>5.443</v>
-      </c>
-      <c r="F7">
-        <v>1.17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8">
-        <v>55</v>
-      </c>
-      <c r="B8">
-        <v>110</v>
-      </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8">
-        <v>6.64</v>
-      </c>
-      <c r="F8">
-        <v>84.17700000000001</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9">
-        <v>60</v>
-      </c>
-      <c r="B9">
-        <v>120</v>
-      </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9">
-        <v>7.889</v>
-      </c>
-      <c r="F9">
-        <v>1.681</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10">
-        <v>65</v>
-      </c>
-      <c r="B10">
-        <v>130</v>
-      </c>
-      <c r="C10">
-        <v>0</v>
-      </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-      <c r="E10">
-        <v>9.367000000000001</v>
-      </c>
-      <c r="F10">
-        <v>46.993</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11">
-        <v>70</v>
-      </c>
-      <c r="B11">
-        <v>140</v>
-      </c>
-      <c r="C11">
-        <v>0</v>
-      </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-      <c r="E11">
-        <v>10.786</v>
-      </c>
-      <c r="F11">
-        <v>99.73099999999999</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12">
-        <v>75</v>
-      </c>
-      <c r="B12">
-        <v>150</v>
-      </c>
-      <c r="C12">
-        <v>0</v>
-      </c>
-      <c r="D12">
-        <v>0</v>
-      </c>
-      <c r="E12">
-        <v>12.328</v>
-      </c>
-      <c r="F12">
-        <v>60.401</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13">
-        <v>80</v>
-      </c>
-      <c r="B13">
-        <v>160</v>
-      </c>
-      <c r="C13">
-        <v>0</v>
-      </c>
-      <c r="D13">
-        <v>0</v>
-      </c>
-      <c r="E13">
-        <v>14.094</v>
-      </c>
-      <c r="F13">
-        <v>58.308</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14">
-        <v>85</v>
-      </c>
-      <c r="B14">
-        <v>170</v>
-      </c>
-      <c r="C14">
-        <v>0</v>
-      </c>
-      <c r="D14">
-        <v>0</v>
-      </c>
-      <c r="E14">
-        <v>16.079</v>
-      </c>
-      <c r="F14">
-        <v>128.515</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15">
-        <v>90</v>
-      </c>
-      <c r="B15">
-        <v>180</v>
-      </c>
-      <c r="C15">
-        <v>0</v>
-      </c>
-      <c r="D15">
-        <v>0</v>
-      </c>
-      <c r="E15">
-        <v>17.803</v>
-      </c>
-      <c r="F15">
-        <v>60.668</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16">
-        <v>95</v>
-      </c>
-      <c r="B16">
-        <v>190</v>
-      </c>
-      <c r="C16">
-        <v>0</v>
-      </c>
-      <c r="D16">
-        <v>0</v>
-      </c>
-      <c r="E16">
-        <v>19.854</v>
-      </c>
-      <c r="F16">
-        <v>68.202</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17">
-        <v>100</v>
-      </c>
-      <c r="B17">
-        <v>200</v>
-      </c>
-      <c r="C17">
-        <v>0</v>
-      </c>
-      <c r="D17">
-        <v>0</v>
-      </c>
-      <c r="E17">
-        <v>23.009</v>
-      </c>
-      <c r="F17">
-        <v>142.576</v>
+        <v>76.405</v>
       </c>
     </row>
   </sheetData>
